--- a/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,57</t>
+          <t>0,78; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,29</t>
+          <t>1,01; 4,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,08</t>
+          <t>1,63; 8,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,63</t>
+          <t>0,64; 2,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,53</t>
+          <t>1,58; 5,54</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,41</t>
+          <t>0,3; 2,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,22</t>
+          <t>0,49; 2,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 7,48</t>
+          <t>2,79; 7,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,39</t>
+          <t>0,32; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,29</t>
+          <t>1,89; 4,68</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,92</t>
+          <t>0,86; 2,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,62</t>
+          <t>2,69; 6,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,44</t>
+          <t>2,53; 5,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,42</t>
+          <t>3,29; 6,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,83</t>
+          <t>1,95; 3,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,8</t>
+          <t>3,43; 5,75</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,51</t>
+          <t>1,76; 4,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,83</t>
+          <t>3,24; 6,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,08</t>
+          <t>5,82; 10,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,9</t>
+          <t>6,77; 10,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,79</t>
+          <t>4,18; 6,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,91</t>
+          <t>5,28; 7,98</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,96</t>
+          <t>2,35; 6,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,59</t>
+          <t>4,1; 7,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,37</t>
+          <t>8,44; 14,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,77</t>
+          <t>9,56; 13,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,48</t>
+          <t>6,12; 9,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,18</t>
+          <t>7,38; 10,11</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,7</t>
+          <t>1,41; 3,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,47</t>
+          <t>2,84; 5,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,25</t>
+          <t>9,26; 14,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,76; 11,4</t>
+          <t>6,55; 11,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,02</t>
+          <t>6,13; 9,17</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,47</t>
+          <t>5,65; 8,47</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,19; 4,66</t>
+          <t>3,24; 4,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,89; 7,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,59</t>
+          <t>6,83; 8,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,93; 4,89</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,38; 6,51</t>
+          <t>5,4; 6,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,8</t>
+          <t>1,0; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,59</t>
+          <t>0,7; 2,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,17</t>
+          <t>0,48; 2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,35</t>
+          <t>0,33; 1,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,8</t>
+          <t>0,85; 2,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,4</t>
+          <t>2,73; 5,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,74</t>
+          <t>1,96; 3,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,58</t>
+          <t>1,9; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,07</t>
+          <t>5,86; 10,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 6,69</t>
+          <t>4,23; 6,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,27</t>
+          <t>2,25; 6,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,44; 14,85</t>
+          <t>8,43; 14,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,55</t>
+          <t>5,97; 9,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,73</t>
+          <t>1,44; 3,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,26; 14,25</t>
+          <t>9,3; 13,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,17</t>
+          <t>6,17; 9,12</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,56; 2,5</t>
+          <t>1,49; 2,46</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,66</t>
+          <t>5,86; 7,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,93; 4,89</t>
+          <t>3,85; 4,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">

--- a/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B_x_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,01</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 6,29</t>
+          <t>0,59; 5,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,54</t>
+          <t>1,01; 4,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,25</t>
+          <t>1,77; 8,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,56</t>
+          <t>0,71; 2,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,54</t>
+          <t>1,61; 5,53</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,57</t>
+          <t>0,31; 2,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,35</t>
+          <t>0,35; 2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 7,47</t>
+          <t>2,75; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,41</t>
+          <t>0,33; 1,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,68</t>
+          <t>1,9; 4,29</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,88</t>
+          <t>0,8; 2,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,48</t>
+          <t>2,66; 6,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,66</t>
+          <t>2,75; 5,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,22</t>
+          <t>3,5; 6,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,7</t>
+          <t>2,02; 3,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,75</t>
+          <t>3,46; 5,8</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,52</t>
+          <t>1,89; 4,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,8</t>
+          <t>3,1; 6,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,15</t>
+          <t>5,82; 10,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 10,08</t>
+          <t>6,65; 9,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,23; 6,75</t>
+          <t>4,26; 6,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 7,98</t>
+          <t>5,35; 7,91</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,1</t>
+          <t>2,3; 5,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,82</t>
+          <t>4,09; 7,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,43; 14,63</t>
+          <t>8,81; 14,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,75</t>
+          <t>9,78; 13,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,55</t>
+          <t>5,91; 9,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,38; 10,11</t>
+          <t>7,47; 10,18</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,64</t>
+          <t>1,41; 3,7</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,29</t>
+          <t>2,87; 5,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,98</t>
+          <t>9,41; 14,25</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,5</t>
+          <t>6,76; 11,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,12</t>
+          <t>6,0; 9,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,47</t>
+          <t>5,8; 8,47</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,46</t>
+          <t>1,53; 2,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,69</t>
+          <t>3,19; 4,66</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,7</t>
+          <t>5,87; 7,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,67</t>
+          <t>6,87; 8,59</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,85; 4,91</t>
+          <t>3,92; 4,97</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,4; 6,55</t>
+          <t>5,38; 6,51</t>
         </is>
       </c>
     </row>
